--- a/ML_by_zhouzhihua/km.xlsx
+++ b/ML_by_zhouzhihua/km.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$9648</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B9648"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9625" workbookViewId="0">
-      <selection activeCell="A9648" sqref="A9648"/>
+      <selection activeCell="D9631" sqref="D9631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -437,6 +437,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>171.12219999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
@@ -77583,7 +77586,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B2662"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
